--- a/emgForEA/test_case_file.xlsx
+++ b/emgForEA/test_case_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FTP\emgCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FTP\EMG-Analysis\emgForEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>A001</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A006</t>
   </si>
 </sst>
 </file>
@@ -357,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -370,6 +389,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emgForEA/test_case_file.xlsx
+++ b/emgForEA/test_case_file.xlsx
@@ -24,29 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>A003</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A006</t>
   </si>
 </sst>
 </file>
@@ -376,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -389,31 +370,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emgForEA/test_case_file.xlsx
+++ b/emgForEA/test_case_file.xlsx
@@ -24,10 +24,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>A001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>A003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A009</t>
   </si>
 </sst>
 </file>
@@ -357,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -370,6 +395,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
